--- a/genome_plot/splai_pdha1.xlsx
+++ b/genome_plot/splai_pdha1.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/vol/work/Github/R-Projects/Gviz_test/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/utsu/work/Github/R-Projects/genome_plot/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA03DDA9-2B18-F44E-8E6A-70ACE19DFD4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F26DF199-A3A7-3D42-AFEC-B618EC55D6C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="80440" yWindow="15840" windowWidth="36760" windowHeight="24620" xr2:uid="{1D3DF8E2-979C-0B49-B4BD-08E7C095E8C5}"/>
+    <workbookView xWindow="1880" yWindow="7680" windowWidth="25560" windowHeight="12040" xr2:uid="{1D3DF8E2-979C-0B49-B4BD-08E7C095E8C5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -445,8 +445,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6830620-AF35-BC40-8236-88D1B6CF6729}">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="326" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" zoomScale="218" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -473,16 +473,18 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2">
-        <v>48933637</v>
+        <f>19373601-395</f>
+        <v>19373206</v>
       </c>
       <c r="B2">
-        <v>48933637</v>
+        <f>A2</f>
+        <v>19373206</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -493,10 +495,12 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3">
-        <v>48933525</v>
+        <f>19373601+21</f>
+        <v>19373622</v>
       </c>
       <c r="B3">
-        <v>48933525</v>
+        <f t="shared" ref="B3:B5" si="0">A3</f>
+        <v>19373622</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -508,18 +512,20 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>-0.87</v>
+        <v>-0.49</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4">
-        <v>48933582</v>
+        <f>19373601-134</f>
+        <v>19373467</v>
       </c>
       <c r="B4">
-        <v>48933582</v>
+        <f t="shared" si="0"/>
+        <v>19373467</v>
       </c>
       <c r="C4">
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -533,10 +539,12 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5">
-        <v>48933503</v>
+        <f>19373601-2</f>
+        <v>19373599</v>
       </c>
       <c r="B5">
-        <v>48933503</v>
+        <f t="shared" si="0"/>
+        <v>19373599</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -545,7 +553,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.32</v>
+        <v>-0.75</v>
       </c>
       <c r="F5">
         <v>0</v>

--- a/genome_plot/splai_pdha1.xlsx
+++ b/genome_plot/splai_pdha1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/utsu/work/Github/R-Projects/genome_plot/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F26DF199-A3A7-3D42-AFEC-B618EC55D6C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AD03011-EA91-7E4B-850E-29EE00989AC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1880" yWindow="7680" windowWidth="25560" windowHeight="12040" xr2:uid="{1D3DF8E2-979C-0B49-B4BD-08E7C095E8C5}"/>
   </bookViews>
@@ -553,7 +553,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.75</v>
+        <v>0.75</v>
       </c>
       <c r="F5">
         <v>0</v>
